--- a/biology/Origine et évolution du vivant/Plumatella/Plumatella.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella/Plumatella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plumatella est un genre de bryozoaires de la famille des Plumatellidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plumatella est un genre de bryozoaires de la famille des Plumatellidae.
 Son nom provient du fait que, vu de près, les polypes donnent à une colonie dense un aspect « plumeux ».
 Une partie de ces espèces est largement répartie dans le monde, une autre partie semble plus locale. 
 </t>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 avril 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 avril 2016) :
 Plumatella agilis (Marcus, 1942)
 Plumatella bigemmis (Annandale, 1919)
 Plumatella bushnelli Wood, 2001
@@ -525,7 +539,7 @@
 Plumatella fruticosa Allmann, 1844
 Plumatella fungosa (Pallas, 1768)
 Plumatella ganapati Rao, Agrawal, Diwan &amp; Shrivastava, 1985
-Plumatella geimermassardi Wood &amp; Okamura, 2004[3]
+Plumatella geimermassardi Wood &amp; Okamura, 2004
 Plumatella incrustata Abrikosov, 1925
 Plumatella javanica Kraepelin, 1906
 Plumatella longa Abrikosov, 1925
@@ -550,8 +564,8 @@
 Plumatella suwana Wood, 2006
 Plumatella vaihiriae (Hastings, 1929)
 Plumatella velata Wood, 1998
-Plumatella vorstmani Toriumi, 1952[2],[4]
-En raison de leurs besoins alimentaires ou de leur fragilité et vulnérabilité à la prédation (par certains poissons ou escargots), il est presque impossible d'élever ces espèces dans un aquarium normal. Mais des scientifiques ont réussi à maintenir ou cultiver des colonies pour les besoins de leurs études[5]
+Plumatella vorstmani Toriumi, 1952,
+En raison de leurs besoins alimentaires ou de leur fragilité et vulnérabilité à la prédation (par certains poissons ou escargots), il est presque impossible d'élever ces espèces dans un aquarium normal. Mais des scientifiques ont réussi à maintenir ou cultiver des colonies pour les besoins de leurs études
 </t>
         </is>
       </c>
@@ -580,9 +594,11 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La population de bryozoaire est encore incomplètement connue, mais par rapport aux autres bryozoaires d'eau douce, le genre Plumatella semble bien présent, voire dominant, au moins dans certaines régions ; Par exemple, pour la zone réunissant la Belgique, le nord de la France et le Luxembourg, J.A Massard &amp; GA Geimer avaient en 1986 inventorié la faune des bryozoaires de cette région en y trouvant 9 espèces[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population de bryozoaire est encore incomplètement connue, mais par rapport aux autres bryozoaires d'eau douce, le genre Plumatella semble bien présent, voire dominant, au moins dans certaines régions ; Par exemple, pour la zone réunissant la Belgique, le nord de la France et le Luxembourg, J.A Massard &amp; GA Geimer avaient en 1986 inventorié la faune des bryozoaires de cette région en y trouvant 9 espèces :
 Fredericella sultana (Blumenbach, 1779)
 Plumatella fruticosa Allman, 1844
 Plumatella emarginata Allman, 1844
@@ -592,7 +608,7 @@
 Hyalinella punctata (Hancock, 1850)
 Cristatella mucedo Cuvier, 1798
 Paludicella articulata (Ehrenberg, 1831)
-On a ensuite comme dans de nombreuses autres régions européennes aussi vu apparaître Pectinatella magnifica (Leidy, 1851)[7].
+On a ensuite comme dans de nombreuses autres régions européennes aussi vu apparaître Pectinatella magnifica (Leidy, 1851).
 </t>
         </is>
       </c>
@@ -621,7 +637,9 @@
           <t>Risques de confusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>À ne pas confondre avec 
 hydres
